--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.4052041017689</v>
+        <v>178.1489211649097</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.3687444794494</v>
+        <v>243.7512133134334</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.8142537783238</v>
+        <v>220.4879396218465</v>
       </c>
       <c r="AD2" t="n">
-        <v>157405.2041017689</v>
+        <v>178148.9211649097</v>
       </c>
       <c r="AE2" t="n">
-        <v>215368.7444794494</v>
+        <v>243751.2133134334</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.558888359543555e-06</v>
+        <v>7.70702696652994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>194814.2537783238</v>
+        <v>220487.9396218465</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.5198931817142</v>
+        <v>105.9344668948459</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.6945318914421</v>
+        <v>144.9442111043071</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.2212291986852</v>
+        <v>131.1109390270293</v>
       </c>
       <c r="AD3" t="n">
-        <v>95519.8931817142</v>
+        <v>105934.4668948459</v>
       </c>
       <c r="AE3" t="n">
-        <v>130694.5318914421</v>
+        <v>144944.2111043071</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.266903236776704e-06</v>
+        <v>1.059451086170218e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>118221.2291986852</v>
+        <v>131110.9390270293</v>
       </c>
     </row>
   </sheetData>
@@ -2055,28 +2055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.18604228380812</v>
+        <v>119.3671779715281</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.710718832008</v>
+        <v>163.3234390088029</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.7586782979076</v>
+        <v>147.7360792157342</v>
       </c>
       <c r="AD2" t="n">
-        <v>99186.04228380811</v>
+        <v>119367.1779715281</v>
       </c>
       <c r="AE2" t="n">
-        <v>135710.718832008</v>
+        <v>163323.4390088029</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.948632290691592e-06</v>
+        <v>1.030178790784326e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.523611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>122758.6782979076</v>
+        <v>147736.0792157341</v>
       </c>
     </row>
     <row r="3">
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.65041434498349</v>
+        <v>114.6609578321113</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.5048725883288</v>
+        <v>156.8841809902769</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.1451093097633</v>
+        <v>141.9113749449388</v>
       </c>
       <c r="AD3" t="n">
-        <v>94650.4143449835</v>
+        <v>114660.9578321113</v>
       </c>
       <c r="AE3" t="n">
-        <v>129504.8725883288</v>
+        <v>156884.1809902769</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.180891090076994e-06</v>
+        <v>1.070401160802772e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.391666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>117145.1093097633</v>
+        <v>141911.3749449388</v>
       </c>
     </row>
   </sheetData>
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.9481287429889</v>
+        <v>133.0936086223988</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.2771008996258</v>
+        <v>182.1045469926963</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.2667951296062</v>
+        <v>164.7247446131014</v>
       </c>
       <c r="AD2" t="n">
-        <v>114948.1287429889</v>
+        <v>133093.6086223988</v>
       </c>
       <c r="AE2" t="n">
-        <v>157277.1008996258</v>
+        <v>182104.5469926963</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.216514425243333e-06</v>
+        <v>9.87076783283656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.483333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>142266.7951296062</v>
+        <v>164724.7446131014</v>
       </c>
     </row>
   </sheetData>
@@ -2755,28 +2755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.50149378491191</v>
+        <v>116.4947553428566</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.4058452587846</v>
+        <v>159.3932636459137</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.6737786236015</v>
+        <v>144.1809942734421</v>
       </c>
       <c r="AD2" t="n">
-        <v>97501.49378491192</v>
+        <v>116494.7553428566</v>
       </c>
       <c r="AE2" t="n">
-        <v>133405.8452587846</v>
+        <v>159393.2636459137</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.757160873151446e-06</v>
+        <v>1.048829680073546e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.886111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>120673.7786236015</v>
+        <v>144180.9942734421</v>
       </c>
     </row>
   </sheetData>
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.513494008937</v>
+        <v>163.7508517095464</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.1520291701362</v>
+        <v>224.0511394866208</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.1950635792229</v>
+        <v>202.6680131918314</v>
       </c>
       <c r="AD2" t="n">
-        <v>137513.494008937</v>
+        <v>163750.8517095464</v>
       </c>
       <c r="AE2" t="n">
-        <v>188152.0291701363</v>
+        <v>224051.1394866208</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.585978293316248e-06</v>
+        <v>8.987039850549017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.297222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>170195.0635792229</v>
+        <v>202668.0131918314</v>
       </c>
     </row>
   </sheetData>
@@ -3349,28 +3349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.4131128941736</v>
+        <v>125.7645258742055</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.2308715600723</v>
+        <v>172.0765726403123</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.4656796077177</v>
+        <v>155.6538260585553</v>
       </c>
       <c r="AD2" t="n">
-        <v>105413.1128941736</v>
+        <v>125764.5258742055</v>
       </c>
       <c r="AE2" t="n">
-        <v>144230.8715600723</v>
+        <v>172076.5726403123</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.711536796590608e-06</v>
+        <v>9.82659172327553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.637500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>130465.6796077177</v>
+        <v>155653.8260585553</v>
       </c>
     </row>
     <row r="3">
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.27602414421064</v>
+        <v>114.4568449236503</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.9926153987016</v>
+        <v>156.6049047040947</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.6817412273565</v>
+        <v>141.6587523955431</v>
       </c>
       <c r="AD3" t="n">
-        <v>94276.02414421063</v>
+        <v>114456.8449236503</v>
       </c>
       <c r="AE3" t="n">
-        <v>128992.6153987016</v>
+        <v>156604.9047040947</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.236940152698985e-06</v>
+        <v>1.073053832370673e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.330555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>116681.7412273565</v>
+        <v>141658.7523955431</v>
       </c>
     </row>
   </sheetData>
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.5724180076736</v>
+        <v>185.3395931104165</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.3340221562364</v>
+        <v>253.589807899328</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.4965295154324</v>
+        <v>229.3875525490207</v>
       </c>
       <c r="AD2" t="n">
-        <v>159572.4180076736</v>
+        <v>185339.5931104165</v>
       </c>
       <c r="AE2" t="n">
-        <v>218334.0221562363</v>
+        <v>253589.807899328</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.131546909360977e-06</v>
+        <v>8.282348383285471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.016666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>197496.5295154324</v>
+        <v>229387.5525490207</v>
       </c>
     </row>
   </sheetData>
@@ -4049,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.22316307740998</v>
+        <v>114.8516665660396</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.288532671925</v>
+        <v>157.145117093513</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.8539779748552</v>
+        <v>142.1474076727083</v>
       </c>
       <c r="AD2" t="n">
-        <v>95223.16307740998</v>
+        <v>114851.6665660396</v>
       </c>
       <c r="AE2" t="n">
-        <v>130288.532671925</v>
+        <v>157145.117093513</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.01775949316224e-06</v>
+        <v>1.065789922344244e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.588888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>117853.9779748552</v>
+        <v>142147.4076727083</v>
       </c>
     </row>
     <row r="3">
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.06889898411059</v>
+        <v>114.6974024727402</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.0774617338215</v>
+        <v>156.9340461554094</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.6630513508442</v>
+        <v>141.9564810486973</v>
       </c>
       <c r="AD3" t="n">
-        <v>95068.89898411059</v>
+        <v>114697.4024727402</v>
       </c>
       <c r="AE3" t="n">
-        <v>130077.4617338214</v>
+        <v>156934.0461554094</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.040616468137561e-06</v>
+        <v>1.069838062455468e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.575</v>
       </c>
       <c r="AH3" t="n">
-        <v>117663.0513508442</v>
+        <v>141956.4810486973</v>
       </c>
     </row>
   </sheetData>
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.91757234834448</v>
+        <v>115.7513635354033</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.238654071592</v>
+        <v>158.3761221788247</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.7134211216421</v>
+        <v>143.2609273604047</v>
       </c>
       <c r="AD2" t="n">
-        <v>95917.57234834447</v>
+        <v>115751.3635354033</v>
       </c>
       <c r="AE2" t="n">
-        <v>131238.654071592</v>
+        <v>158376.1221788247</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.064398525438842e-06</v>
+        <v>1.057578148991119e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.488888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>118713.4211216421</v>
+        <v>143260.9273604047</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.3950575530169</v>
+        <v>114.2288487400757</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.1554821600136</v>
+        <v>156.2929502672463</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.8290642135538</v>
+        <v>141.3765704523166</v>
       </c>
       <c r="AD3" t="n">
-        <v>94395.0575530169</v>
+        <v>114228.8487400757</v>
       </c>
       <c r="AE3" t="n">
-        <v>129155.4821600136</v>
+        <v>156292.9502672463</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.158093071314964e-06</v>
+        <v>1.073917659658595e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.436111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>116829.0642135539</v>
+        <v>141376.5704523166</v>
       </c>
     </row>
   </sheetData>
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.2455954965312</v>
+        <v>160.8351947982091</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.8902109572717</v>
+        <v>220.0618090708264</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.5764785431664</v>
+        <v>199.0594188718588</v>
       </c>
       <c r="AD2" t="n">
-        <v>140245.5954965312</v>
+        <v>160835.1947982091</v>
       </c>
       <c r="AE2" t="n">
-        <v>191890.2109572717</v>
+        <v>220061.8090708264</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.950606605590828e-06</v>
+        <v>8.415703121225905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>173576.4785431664</v>
+        <v>199059.4188718587</v>
       </c>
     </row>
     <row r="3">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.99104146133995</v>
+        <v>105.3285562937402</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.9709336363352</v>
+        <v>144.1151774889855</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.5666901454689</v>
+        <v>130.3610272163977</v>
       </c>
       <c r="AD3" t="n">
-        <v>94991.04146133995</v>
+        <v>105328.5562937402</v>
       </c>
       <c r="AE3" t="n">
-        <v>129970.9336363352</v>
+        <v>144115.1774889855</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.26479811138793e-06</v>
+        <v>1.064974158122697e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.259722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>117566.6901454689</v>
+        <v>130361.0272163977</v>
       </c>
     </row>
   </sheetData>
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.33351917612926</v>
+        <v>115.549811898437</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.8077708716458</v>
+        <v>158.1003503372969</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.2282222130593</v>
+        <v>143.0114747963841</v>
       </c>
       <c r="AD2" t="n">
-        <v>96333.51917612925</v>
+        <v>115549.811898437</v>
       </c>
       <c r="AE2" t="n">
-        <v>131807.7708716458</v>
+        <v>158100.3503372969</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.867420578671899e-06</v>
+        <v>1.05803477694136e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.765277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>119228.2222130593</v>
+        <v>143011.474796384</v>
       </c>
     </row>
     <row r="3">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.6838791942308</v>
+        <v>115.9001719165385</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.2871489052052</v>
+        <v>158.5797283708563</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.6618490799073</v>
+        <v>143.445101663232</v>
       </c>
       <c r="AD3" t="n">
-        <v>96683.8791942308</v>
+        <v>115900.1719165385</v>
       </c>
       <c r="AE3" t="n">
-        <v>132287.1489052052</v>
+        <v>158579.7283708563</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.868056923835249e-06</v>
+        <v>1.058149525032781e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.765277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>119661.8490799073</v>
+        <v>143445.101663232</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.3968596740305</v>
+        <v>129.8150493269622</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.4180978885454</v>
+        <v>177.6186775248542</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.8715285462482</v>
+        <v>160.6670002313114</v>
       </c>
       <c r="AD2" t="n">
-        <v>111396.8596740305</v>
+        <v>129815.0493269622</v>
       </c>
       <c r="AE2" t="n">
-        <v>152418.0978885454</v>
+        <v>177618.6775248542</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.433137890406003e-06</v>
+        <v>1.013649864042698e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.236111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>137871.5285462482</v>
+        <v>160667.0002313114</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.4917580099243</v>
+        <v>147.3068850948304</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.8621390303055</v>
+        <v>201.5517789077707</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.1279278667641</v>
+        <v>182.3159600085687</v>
       </c>
       <c r="AD2" t="n">
-        <v>120491.7580099243</v>
+        <v>147306.8850948304</v>
       </c>
       <c r="AE2" t="n">
-        <v>164862.1390303055</v>
+        <v>201551.7789077707</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.934117830731247e-06</v>
+        <v>9.488491563386448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.825</v>
       </c>
       <c r="AH2" t="n">
-        <v>149127.9278667641</v>
+        <v>182315.9600085687</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.3593063198074</v>
+        <v>225.7969811196253</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.194489200302</v>
+        <v>308.94539102749</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.0755765468876</v>
+        <v>279.4600765154975</v>
       </c>
       <c r="AD2" t="n">
-        <v>192359.3063198074</v>
+        <v>225796.9811196253</v>
       </c>
       <c r="AE2" t="n">
-        <v>263194.489200302</v>
+        <v>308945.39102749</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.515148480084987e-06</v>
+        <v>7.25034286951257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.269444444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>238075.5765468876</v>
+        <v>279460.0765154975</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.30106933583703</v>
+        <v>115.1215212762115</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.3951274516864</v>
+        <v>157.5143442131196</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.9503994984429</v>
+        <v>142.4813962742333</v>
       </c>
       <c r="AD2" t="n">
-        <v>95301.06933583703</v>
+        <v>115121.5212762115</v>
       </c>
       <c r="AE2" t="n">
-        <v>130395.1274516864</v>
+        <v>157514.3442131196</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.056620504356515e-06</v>
+        <v>1.064124330594707e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.527777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>117950.3994984429</v>
+        <v>142481.3962742333</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.66538006693114</v>
+        <v>114.4858320073056</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.5253493493386</v>
+        <v>156.6445661107717</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.1636317974416</v>
+        <v>141.694628573232</v>
       </c>
       <c r="AD3" t="n">
-        <v>94665.38006693113</v>
+        <v>114485.8320073056</v>
       </c>
       <c r="AE3" t="n">
-        <v>129525.3493493386</v>
+        <v>156644.5661107717</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.103396903760111e-06</v>
+        <v>1.072342759447428e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.501388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>117163.6317974416</v>
+        <v>141694.628573232</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.2103683714496</v>
+        <v>136.7261819162804</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.0041528453671</v>
+        <v>187.0747940312059</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.8290196615792</v>
+        <v>169.2206382500428</v>
       </c>
       <c r="AD2" t="n">
-        <v>116210.3683714496</v>
+        <v>136726.1819162804</v>
       </c>
       <c r="AE2" t="n">
-        <v>159004.1528453671</v>
+        <v>187074.7940312059</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.337411003951391e-06</v>
+        <v>9.126378002888714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.858333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>143829.0196615792</v>
+        <v>169220.6382500427</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.73628571472835</v>
+        <v>104.9942819956948</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.6223655847911</v>
+        <v>143.6578086472589</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.2513889395457</v>
+        <v>129.9473090150041</v>
       </c>
       <c r="AD3" t="n">
-        <v>94736.28571472835</v>
+        <v>104994.2819956948</v>
       </c>
       <c r="AE3" t="n">
-        <v>129622.3655847911</v>
+        <v>143657.8086472588</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.247663695932878e-06</v>
+        <v>1.068280866543653e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.295833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>117251.3889395457</v>
+        <v>129947.3090150041</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.0419212788933</v>
+        <v>308.6988103702336</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.8008289336797</v>
+        <v>422.3753311788994</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.8436971898483</v>
+        <v>382.064422378685</v>
       </c>
       <c r="AD2" t="n">
-        <v>260041.9212788933</v>
+        <v>308698.8103702336</v>
       </c>
       <c r="AE2" t="n">
-        <v>355800.8289336797</v>
+        <v>422375.3311788994</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.670943508197888e-06</v>
+        <v>5.725062149170942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.906944444444443</v>
       </c>
       <c r="AH2" t="n">
-        <v>321843.6971898483</v>
+        <v>382064.422378685</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.84480084622</v>
+        <v>127.516037450358</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.9262584114474</v>
+        <v>174.4730680500402</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.7129453280159</v>
+        <v>157.8216033098819</v>
       </c>
       <c r="AD2" t="n">
-        <v>108844.80084622</v>
+        <v>127516.037450358</v>
       </c>
       <c r="AE2" t="n">
-        <v>148926.2584114474</v>
+        <v>174473.0680500402</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.612285624500777e-06</v>
+        <v>1.034025763087685e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.041666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>134712.9453280159</v>
+        <v>157821.6033098819</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.80585709275127</v>
+        <v>115.2333855745558</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.0858003303603</v>
+        <v>157.6674018812186</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.5751555269418</v>
+        <v>142.6198463333068</v>
       </c>
       <c r="AD2" t="n">
-        <v>95805.85709275126</v>
+        <v>115233.3855745558</v>
       </c>
       <c r="AE2" t="n">
-        <v>131085.8003303602</v>
+        <v>157667.4018812186</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.944745684443846e-06</v>
+        <v>1.061985432794043e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.673611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>118575.1555269418</v>
+        <v>142619.8463333067</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.29694636979202</v>
+        <v>114.7244748515965</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.3894862276512</v>
+        <v>156.9710877785096</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.9452966649121</v>
+        <v>141.9899874712771</v>
       </c>
       <c r="AD3" t="n">
-        <v>95296.94636979203</v>
+        <v>114724.4748515965</v>
       </c>
       <c r="AE3" t="n">
-        <v>130389.4862276512</v>
+        <v>156971.0877785096</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.985623573892827e-06</v>
+        <v>1.069287969424295e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.648611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>117945.2966649121</v>
+        <v>141989.9874712771</v>
       </c>
     </row>
   </sheetData>
